--- a/ressources/windTurbines/Vestas.xlsx
+++ b/ressources/windTurbines/Vestas.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="8660" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="3MW" sheetId="1" r:id="rId1"/>
     <sheet name="2MW" sheetId="2" r:id="rId2"/>
     <sheet name="1.65MW" sheetId="4" r:id="rId3"/>
     <sheet name="Transformer" sheetId="5" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="98">
   <si>
     <t>Iron</t>
   </si>
@@ -273,6 +274,54 @@
   </si>
   <si>
     <t>1 t</t>
+  </si>
+  <si>
+    <t>Non-renewable fuels</t>
+  </si>
+  <si>
+    <t>MJ/kg</t>
+  </si>
+  <si>
+    <t>Crude oil (resource)</t>
+  </si>
+  <si>
+    <t>Hard coal (resource)</t>
+  </si>
+  <si>
+    <t>Lignite (resource)</t>
+  </si>
+  <si>
+    <t>Natural gas (resource)</t>
+  </si>
+  <si>
+    <t>Uranium (resource)</t>
+  </si>
+  <si>
+    <t>Renewable fuels</t>
+  </si>
+  <si>
+    <t>Biomass, dry matter, fuel</t>
+  </si>
+  <si>
+    <t>Primary energy from wind power</t>
+  </si>
+  <si>
+    <t>Primary energy from hydro power</t>
+  </si>
+  <si>
+    <t>Primary energy from solar energy</t>
+  </si>
+  <si>
+    <t>Primary energy from geothermics</t>
+  </si>
+  <si>
+    <t>Total (MJ/kWh produced)</t>
+  </si>
+  <si>
+    <t>Total (kWh/kWh produced)</t>
+  </si>
+  <si>
+    <t>Total (kWh/turbine) in the lifetime</t>
   </si>
 </sst>
 </file>
@@ -316,11 +365,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -926,7 +976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -1818,9 +1868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1954,7 +2002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2225,4 +2273,190 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7.1400000000000001E-4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45.7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.2599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.2899999999999999E-3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.2900000000000001E-4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9.58</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.1900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.22E-4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>50.7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.6499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9.9800000000000007E-9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>629000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.2700000000000004E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.3100000000000001E-4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.9399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.21E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5.0899999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9.87E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.0899999999999999E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.0099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3392042</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>